--- a/russia-narrative-link-list.xlsx
+++ b/russia-narrative-link-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwaste/Desktop/Undergrad-Thesis-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5966132F-E851-3544-803F-4A5818615D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91A4532-009E-434B-A592-0705DE44C59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="4340" windowWidth="18860" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7580" yWindow="500" windowWidth="18860" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="russia-narrative-link-list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>Embassy of Spain</t>
   </si>
@@ -227,6 +227,60 @@
   </si>
   <si>
     <t>account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter </t>
+  </si>
+  <si>
+    <t>Embassy of Brazil</t>
+  </si>
+  <si>
+    <t>http://t.me/embaixadarussa</t>
+  </si>
+  <si>
+    <t>https://twitter.com/embaixadarussa</t>
+  </si>
+  <si>
+    <t>embaixadarussa</t>
+  </si>
+  <si>
+    <t>brazil.mid.ru</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ActualidadRT</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SputnikMundo</t>
+  </si>
+  <si>
+    <t>rtnoticias</t>
+  </si>
+  <si>
+    <t>ActualidadRT</t>
+  </si>
+  <si>
+    <t>https://tlgrm.es/channels/@rtnoticias</t>
+  </si>
+  <si>
+    <t>Sputnik Mundo</t>
+  </si>
+  <si>
+    <t>SputnikMundo</t>
+  </si>
+  <si>
+    <t>sputnik_brasil</t>
+  </si>
+  <si>
+    <t>https://twitter.com/sputnik_brasil?lang=en</t>
+  </si>
+  <si>
+    <t>Sputnik Brasil</t>
+  </si>
+  <si>
+    <t>https://twitter.com/EmbRusChile</t>
+  </si>
+  <si>
+    <t>EmbRusChile</t>
   </si>
 </sst>
 </file>
@@ -710,8 +764,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1067,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,27 +1297,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1270,24 +1325,24 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
@@ -1295,186 +1350,295 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/russia-narrative-link-list.xlsx
+++ b/russia-narrative-link-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwaste/Desktop/Undergrad-Thesis-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91A4532-009E-434B-A592-0705DE44C59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F501F8C-38F3-404A-ACC5-B99960121145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7580" yWindow="500" windowWidth="18860" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>Embassy of Spain</t>
   </si>
@@ -82,9 +82,6 @@
     <t>https://t.me/EmbRusUruguay</t>
   </si>
   <si>
-    <t>Twitter</t>
-  </si>
-  <si>
     <t>https://mobile.twitter.com/EmbRusUruguay</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>account</t>
   </si>
   <si>
-    <t xml:space="preserve">Twitter </t>
-  </si>
-  <si>
     <t>Embassy of Brazil</t>
   </si>
   <si>
@@ -281,6 +275,21 @@
   </si>
   <si>
     <t>EmbRusChile</t>
+  </si>
+  <si>
+    <t>Twitter-pt</t>
+  </si>
+  <si>
+    <t>Twitter-es</t>
+  </si>
+  <si>
+    <t>https://twitter.com/EmbaixadaRusPt</t>
+  </si>
+  <si>
+    <t>EmbaixadaRusPt</t>
+  </si>
+  <si>
+    <t>https://twitter.com/EmbajadaRusaES</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,203 +1144,203 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,306 +1348,334 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
         <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" t="s">
         <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>78</v>
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
         <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
